--- a/Design/Main_Data/GrowUpGroup_Data.xlsx
+++ b/Design/Main_Data/GrowUpGroup_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chief\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FlushX\trunk\Design\Main_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,85 +24,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>growUp_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_1_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_1_Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_2_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_2_Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_3_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_3_Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_4_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_4_Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_5_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_5_Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_6_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_6_Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_7_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_7_Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_D_GrowUp_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_D_GrowUp_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_D_GrowUp_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_D_GrowUp_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_D_GrowUp_5</t>
+    <t>GrowUp_ID_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowUp_ID_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowUp_ID_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowUp_ID_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowUp_ID_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowUp_ID_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowUp_ID_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,9 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -455,9 +433,9 @@
     <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -466,78 +444,78 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>4000</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
+      <c r="D2" s="1">
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>3000</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
+      <c r="F2" s="1">
+        <v>3</v>
       </c>
       <c r="G2" s="1">
         <v>2000</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
+      <c r="H2" s="1">
+        <v>4</v>
       </c>
       <c r="I2" s="1">
         <v>950</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
+      <c r="J2" s="1">
+        <v>5</v>
       </c>
       <c r="K2" s="1">
         <v>50</v>
